--- a/bin/config/xlsx/Conditions.xlsx
+++ b/bin/config/xlsx/Conditions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="26150" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Condition" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>design</t>
-  </si>
-  <si>
-    <t>client</t>
   </si>
   <si>
     <t>uint32</t>
@@ -818,7 +815,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1068,18 +1065,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD9"/>
+      <selection activeCell="K1" sqref="K$1:K$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="13.6272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1110,100 +1107,94 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="3:6">
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
         <v>9</v>
       </c>
-      <c r="K4" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1214,16 +1205,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1243,16 +1234,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1272,16 +1263,16 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1301,16 +1292,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1330,16 +1321,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1359,16 +1350,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1388,16 +1379,16 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1417,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1446,16 +1437,16 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1475,16 +1466,16 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1504,16 +1495,16 @@
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1533,16 +1524,16 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1562,16 +1553,16 @@
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1591,16 +1582,16 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1620,16 +1611,16 @@
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1649,16 +1640,16 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1678,16 +1669,16 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1707,16 +1698,16 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1736,16 +1727,16 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1765,16 +1756,16 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1794,16 +1785,16 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1823,16 +1814,16 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1852,16 +1843,16 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1881,16 +1872,16 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1910,16 +1901,16 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1939,16 +1930,16 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1968,16 +1959,16 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1997,16 +1988,16 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2026,16 +2017,16 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2047,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/Conditions.xlsx
+++ b/bin/config/xlsx/Conditions.xlsx
@@ -59,7 +59,7 @@
     <t>comparison</t>
   </si>
   <si>
-    <t>design</t>
+    <t>designer</t>
   </si>
   <si>
     <t>uint32</t>
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K$1:K$1048576"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/bin/config/xlsx/Conditions.xlsx
+++ b/bin/config/xlsx/Conditions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26150" windowHeight="12720"/>
+    <workbookView windowWidth="30770" windowHeight="13280"/>
   </bookViews>
   <sheets>
     <sheet name="Condition" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -65,9 +65,6 @@
     <t>uint32</t>
   </si>
   <si>
-    <t>repeated</t>
-  </si>
-  <si>
     <t>common</t>
   </si>
   <si>
@@ -81,45 +78,6 @@
   </si>
   <si>
     <t xml:space="preserve">0: &gt;= 1:&gt; 2: &lt;= 3: &lt; 4:== </t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>[1,2,3,4]</t>
-  </si>
-  <si>
-    <t>[5,6,7,8]</t>
-  </si>
-  <si>
-    <t>[1,2]</t>
-  </si>
-  <si>
-    <t>[1,2,3,4,5,6,7,8]</t>
-  </si>
-  <si>
-    <t>[10]</t>
-  </si>
-  <si>
-    <t>[15]</t>
-  </si>
-  <si>
-    <t>[16]</t>
   </si>
   <si>
     <t>杀春节的年兽2个</t>
@@ -742,10 +700,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1065,18 +1023,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="10" max="10" width="13.6272727272727" customWidth="1"/>
+    <col min="17" max="17" width="13.6272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1087,28 +1045,49 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1136,909 +1115,990 @@
       <c r="I2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="3:6">
-      <c r="C3" t="s">
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" t="s">
+      <c r="N6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" t="s">
+      <c r="O6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" t="s">
+      <c r="P6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>4</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>5</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>6</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>7</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>8</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>9</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>10</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>12</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>13</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>14</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>15</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>16</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>17</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
-      <c r="C26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>18</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>19</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="C28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>20</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>21</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
-      <c r="C30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>22</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>23</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33">
         <v>24</v>
       </c>
       <c r="B33">
         <v>6</v>
       </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34">
         <v>25</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35">
         <v>26</v>
       </c>
       <c r="B35">
         <v>7</v>
       </c>
-      <c r="C35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36">
         <v>27</v>
       </c>
       <c r="B36">
         <v>8</v>
       </c>
-      <c r="C36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="C36">
+        <v>15</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37">
         <v>28</v>
       </c>
       <c r="B37">
         <v>8</v>
       </c>
-      <c r="C37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="C37">
+        <v>16</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38">
         <v>29</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>2</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>30</v>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>2</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/Conditions.xlsx
+++ b/bin/config/xlsx/Conditions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30770" windowHeight="13280"/>
+    <workbookView windowHeight="17200"/>
   </bookViews>
   <sheets>
     <sheet name="Condition" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -1023,18 +1023,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:M3"/>
+      <selection activeCell="N1" sqref="N$1:N$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="17" max="17" width="13.6272727272727" customWidth="1"/>
+    <col min="19" max="19" width="13.6272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1072,22 +1072,28 @@
         <v>4</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1136,8 +1142,14 @@
       <c r="P2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1187,24 +1199,30 @@
         <v>11</v>
       </c>
       <c r="Q4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:18">
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>13</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1224,17 +1242,19 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
       <c r="P10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1254,17 +1274,19 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
       <c r="P11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1274,27 +1296,25 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
       <c r="P12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1304,27 +1324,25 @@
       <c r="C13">
         <v>4</v>
       </c>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
       <c r="P13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1344,17 +1362,19 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>2</v>
-      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
       <c r="P14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1374,17 +1394,19 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>2</v>
-      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
       <c r="P15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>7</v>
       </c>
@@ -1394,27 +1416,25 @@
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>2</v>
-      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
       <c r="P16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1424,27 +1444,25 @@
       <c r="C17">
         <v>4</v>
       </c>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>2</v>
-      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
       <c r="P17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>9</v>
       </c>
@@ -1464,17 +1482,19 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>2</v>
-      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
       <c r="P18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>10</v>
       </c>
@@ -1494,17 +1514,19 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>2</v>
-      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
       <c r="P19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>11</v>
       </c>
@@ -1524,17 +1546,19 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>2</v>
-      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
       <c r="P20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>12</v>
       </c>
@@ -1554,17 +1578,19 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>2</v>
-      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
       <c r="P21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>13</v>
       </c>
@@ -1584,17 +1610,19 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>2</v>
-      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
       <c r="P22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22">
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>14</v>
       </c>
@@ -1612,17 +1640,19 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>2</v>
-      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
       <c r="P23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>15</v>
       </c>
@@ -1642,17 +1672,19 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
       <c r="P24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>16</v>
       </c>
@@ -1672,17 +1704,19 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
       <c r="P25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>17</v>
       </c>
@@ -1692,27 +1726,25 @@
       <c r="C26">
         <v>3</v>
       </c>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
       <c r="P26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>18</v>
       </c>
@@ -1722,27 +1754,25 @@
       <c r="C27">
         <v>4</v>
       </c>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
       <c r="P27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>19</v>
       </c>
@@ -1761,24 +1791,25 @@
       <c r="F28">
         <v>4</v>
       </c>
-      <c r="G28"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
       <c r="P28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>20</v>
       </c>
@@ -1797,24 +1828,25 @@
       <c r="F29">
         <v>8</v>
       </c>
-      <c r="G29"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
       <c r="P29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>21</v>
       </c>
@@ -1827,26 +1859,25 @@
       <c r="D30">
         <v>2</v>
       </c>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
       <c r="P30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>22</v>
       </c>
@@ -1856,10 +1887,6 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
       <c r="H31">
         <v>2</v>
       </c>
@@ -1874,17 +1901,19 @@
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
       <c r="P31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>23</v>
       </c>
@@ -1894,10 +1923,6 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
       <c r="H32">
         <v>1</v>
       </c>
@@ -1912,17 +1937,19 @@
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
       <c r="P32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>24</v>
       </c>
@@ -1932,83 +1959,59 @@
       <c r="C33">
         <v>10</v>
       </c>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
       <c r="P33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>25</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>1</v>
-      </c>
       <c r="P34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>26</v>
       </c>
       <c r="B35">
         <v>7</v>
       </c>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
       <c r="P35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>27</v>
       </c>
@@ -2018,27 +2021,17 @@
       <c r="C36">
         <v>15</v>
       </c>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
       <c r="P36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>28</v>
       </c>
@@ -2048,27 +2041,17 @@
       <c r="C37">
         <v>16</v>
       </c>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
       <c r="P37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38">
         <v>29</v>
       </c>
@@ -2078,26 +2061,16 @@
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>2</v>
-      </c>
       <c r="P38">
         <v>0</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="Q38">
+        <v>2</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38" t="s">
         <v>16</v>
       </c>
     </row>

--- a/bin/config/xlsx/Conditions.xlsx
+++ b/bin/config/xlsx/Conditions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17200"/>
+    <workbookView windowWidth="24500" windowHeight="10140"/>
   </bookViews>
   <sheets>
     <sheet name="Condition" sheetId="1" r:id="rId1"/>
@@ -1023,10 +1023,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N$1:N$1048576"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1208,333 +1208,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
-      <c r="B6" t="s">
+    <row r="19" spans="2:18">
+      <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P19" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q19" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R19" s="2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>2</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>2</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>2</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>2</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>2</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>2</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1552,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -1560,13 +1256,13 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1584,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -1592,18 +1288,14 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="1">
-        <v>5</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="C22">
+        <v>3</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1616,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -1624,16 +1316,14 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="C23">
+        <v>4</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1646,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -1654,10 +1344,10 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -1678,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -1686,10 +1376,10 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
@@ -1710,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -1718,10 +1408,10 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -1738,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -1746,10 +1436,10 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -1766,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -1774,23 +1464,18 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1803,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -1811,23 +1496,18 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-      <c r="D29">
-        <v>6</v>
-      </c>
-      <c r="E29">
-        <v>7</v>
-      </c>
-      <c r="F29">
-        <v>8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1840,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -1848,17 +1528,18 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
         <v>3</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1871,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -1879,26 +1560,22 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
         <v>4</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31">
-        <v>2</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -1907,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -1915,26 +1592,22 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
         <v>5</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="J32">
-        <v>3</v>
-      </c>
-      <c r="K32">
-        <v>4</v>
-      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -1943,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -1951,14 +1624,16 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B33">
-        <v>6</v>
-      </c>
-      <c r="C33">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1971,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -1979,11 +1654,26 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B34">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
       <c r="P34">
         <v>0</v>
       </c>
@@ -1996,11 +1686,26 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B35">
-        <v>7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
       <c r="P35">
         <v>0</v>
       </c>
@@ -2013,14 +1718,22 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>15</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
       <c r="P36">
         <v>0</v>
       </c>
@@ -2033,44 +1746,331 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40">
+        <v>21</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41">
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42">
+        <v>23</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+      <c r="K42">
+        <v>4</v>
+      </c>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43">
+        <v>24</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44">
+        <v>25</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45">
+        <v>26</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46">
+        <v>27</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47">
         <v>28</v>
       </c>
-      <c r="B37">
+      <c r="B47">
         <v>8</v>
       </c>
-      <c r="C37">
+      <c r="C47">
         <v>16</v>
       </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
-      <c r="A38">
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48">
         <v>29</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>2</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38" t="s">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>2</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48" t="s">
         <v>16</v>
       </c>
     </row>
